--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="500">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -797,7 +797,7 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>active | on-hold | completed</t>
   </si>
   <si>
     <t>The status of the order.</t>
@@ -806,10 +806,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -969,10 +966,10 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1066,7 +1063,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1219,7 +1216,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1767,8 +1764,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.17578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5270,11 +5267,9 @@
       <c r="W31" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5307,24 +5302,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5350,13 +5345,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5364,7 +5359,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>44</v>
@@ -5385,11 +5380,11 @@
         <v>145</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>52</v>
@@ -5421,16 +5416,16 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5438,7 +5433,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5464,16 +5459,16 @@
         <v>151</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5483,29 +5478,29 @@
         <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W33" t="s" s="2">
+      <c r="X33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5522,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5540,13 +5535,13 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5554,7 +5549,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5580,10 +5575,10 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5591,7 +5586,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>44</v>
@@ -5615,11 +5610,11 @@
         <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5651,16 +5646,16 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5668,7 +5663,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5691,26 +5686,26 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5769,13 +5764,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5786,11 +5781,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5812,13 +5807,13 @@
         <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5844,14 +5839,12 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="X36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5868,7 +5861,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5883,24 +5876,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6012,7 +6005,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6126,7 +6119,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6198,7 +6191,7 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -6240,10 +6233,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
@@ -6268,7 +6261,7 @@
         <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>164</v>
@@ -6306,7 +6299,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6356,7 +6349,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6472,11 +6465,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6498,13 +6491,13 @@
         <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6530,14 +6523,14 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6554,7 +6547,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6563,7 +6556,7 @@
         <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6572,21 +6565,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6609,17 +6602,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6668,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6686,10 +6679,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6700,7 +6693,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6723,13 +6716,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6780,7 +6773,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>52</v>
@@ -6795,28 +6788,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6835,13 +6828,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6892,7 +6885,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6907,28 +6900,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6947,13 +6940,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7004,7 +6997,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7019,24 +7012,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7059,13 +7052,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7092,14 +7085,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7116,7 +7109,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7137,22 +7130,22 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7171,13 +7164,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7228,7 +7221,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7243,28 +7236,28 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7283,16 +7276,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7342,7 +7335,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7357,28 +7350,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7400,13 +7393,13 @@
         <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7432,14 +7425,14 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7456,7 +7449,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7471,16 +7464,16 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7488,7 +7481,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7600,7 +7593,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7714,7 +7707,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7786,7 +7779,7 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7828,10 +7821,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
@@ -7856,7 +7849,7 @@
         <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>164</v>
@@ -7894,7 +7887,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7944,10 +7937,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>44</v>
@@ -7972,7 +7965,7 @@
         <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>164</v>
@@ -8010,7 +8003,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8060,7 +8053,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8176,11 +8169,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8199,16 +8192,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8258,7 +8251,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8273,16 +8266,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8290,7 +8283,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8316,10 +8309,10 @@
         <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8346,14 +8339,14 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8370,7 +8363,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8391,10 +8384,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8402,7 +8395,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8425,13 +8418,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8482,7 +8475,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8503,10 +8496,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8514,7 +8507,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8540,13 +8533,13 @@
         <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8572,14 +8565,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8596,7 +8589,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8611,16 +8604,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8628,7 +8621,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8651,16 +8644,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8710,7 +8703,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8725,16 +8718,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8742,7 +8735,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8765,13 +8758,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8822,7 +8815,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8837,13 +8830,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8854,11 +8847,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8877,16 +8870,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8936,7 +8929,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8951,13 +8944,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8968,7 +8961,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8991,16 +8984,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9050,7 +9043,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9068,10 +9061,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9082,11 +9075,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9108,16 +9101,16 @@
         <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9142,14 +9135,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9166,7 +9159,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9184,21 +9177,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9221,13 +9214,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9278,7 +9271,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9293,24 +9286,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9336,10 +9329,10 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9390,7 +9383,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9408,10 +9401,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9422,7 +9415,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9445,16 +9438,16 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9504,7 +9497,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9519,13 +9512,13 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -3049,7 +3049,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>43</v>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-03:One category shall be '108252007' 'http://snomed.info/sct' {category.coding.where(system='http://snomed.info/sct' and code='108252007').exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -867,14 +867,6 @@
   </si>
   <si>
     <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="108252007"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -5478,28 +5470,28 @@
         <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W33" t="s" s="2">
+      <c r="X33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5535,10 +5527,10 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>267</v>
@@ -5549,7 +5541,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5575,10 +5567,10 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5586,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>44</v>
@@ -5610,11 +5602,11 @@
         <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5631,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5646,16 +5638,16 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5663,7 +5655,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5686,26 +5678,26 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5749,7 +5741,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5764,13 +5756,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5781,11 +5773,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5807,13 +5799,13 @@
         <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5839,11 +5831,11 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5861,7 +5853,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5876,24 +5868,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6005,7 +5997,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6119,7 +6111,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6191,7 +6183,7 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -6233,10 +6225,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
@@ -6261,7 +6253,7 @@
         <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>164</v>
@@ -6299,7 +6291,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6349,7 +6341,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6465,11 +6457,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6491,13 +6483,13 @@
         <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6523,14 +6515,14 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6547,7 +6539,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6556,7 +6548,7 @@
         <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6565,21 +6557,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6602,17 +6594,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6661,7 +6653,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6679,10 +6671,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6693,7 +6685,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6716,13 +6708,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6773,7 +6765,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>52</v>
@@ -6788,28 +6780,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6828,13 +6820,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6885,7 +6877,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6900,28 +6892,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6940,13 +6932,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6997,7 +6989,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7012,24 +7004,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7052,13 +7044,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7085,14 +7077,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7109,7 +7101,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7130,22 +7122,22 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7164,13 +7156,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7221,7 +7213,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7236,28 +7228,28 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7276,16 +7268,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7335,7 +7327,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7350,28 +7342,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7393,13 +7385,13 @@
         <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7425,14 +7417,14 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7449,7 +7441,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7464,16 +7456,16 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7481,7 +7473,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7593,7 +7585,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7707,7 +7699,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7779,7 +7771,7 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7821,10 +7813,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
@@ -7849,7 +7841,7 @@
         <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>164</v>
@@ -7887,7 +7879,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7937,10 +7929,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>44</v>
@@ -7965,7 +7957,7 @@
         <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>164</v>
@@ -8003,7 +7995,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8053,7 +8045,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8169,11 +8161,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8192,16 +8184,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8251,7 +8243,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8266,16 +8258,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8283,7 +8275,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8309,10 +8301,10 @@
         <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8339,14 +8331,14 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8363,7 +8355,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8384,10 +8376,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8395,7 +8387,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8418,13 +8410,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8475,7 +8467,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8496,10 +8488,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8507,7 +8499,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8533,13 +8525,13 @@
         <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8565,14 +8557,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8589,7 +8581,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8604,16 +8596,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8621,7 +8613,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8644,16 +8636,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8703,7 +8695,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8718,16 +8710,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8735,7 +8727,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8758,13 +8750,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8815,7 +8807,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8830,13 +8822,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8847,11 +8839,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8870,16 +8862,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8929,7 +8921,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8944,13 +8936,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8961,7 +8953,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8984,16 +8976,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9043,7 +9035,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9061,10 +9053,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9075,11 +9067,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9101,16 +9093,16 @@
         <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9135,14 +9127,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9159,7 +9151,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9177,21 +9169,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9214,13 +9206,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9271,7 +9263,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9286,24 +9278,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9329,10 +9321,10 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9383,7 +9375,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9401,10 +9393,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9415,7 +9407,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9438,16 +9430,16 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9497,7 +9489,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9512,13 +9504,13 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="537">
   <si>
     <t>Path</t>
   </si>
@@ -988,17 +988,7 @@
     <t>ServiceRequest.code.coding</t>
   </si>
   <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
     <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>ServiceRequest.code.text</t>
@@ -1292,6 +1282,126 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
+    <t>ServiceRequest.performerType.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>snomedPerformerType</t>
   </si>
   <si>
@@ -1299,6 +1409,9 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
@@ -1724,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,7 +1846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.38671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6113,7 +6226,9 @@
       <c r="A39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6122,7 +6237,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6183,14 +6298,16 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>168</v>
@@ -6225,11 +6342,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B40" t="s" s="2">
         <v>313</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6238,7 +6353,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6250,19 +6365,19 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6287,11 +6402,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6309,13 +6426,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6327,10 +6444,10 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6341,18 +6458,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
@@ -6364,20 +6481,18 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6401,13 +6516,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6425,16 +6540,16 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>64</v>
@@ -6443,32 +6558,32 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6480,18 +6595,18 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6515,40 +6630,40 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6557,21 +6672,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6579,13 +6694,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6594,18 +6709,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6653,10 +6766,10 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>52</v>
@@ -6668,38 +6781,38 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6708,13 +6821,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6765,10 +6878,10 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>52</v>
@@ -6780,28 +6893,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6820,13 +6933,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6877,7 +6990,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6892,28 +7005,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6932,13 +7045,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6965,13 +7078,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6989,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7004,38 +7117,38 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7044,13 +7157,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7077,31 +7190,31 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7116,28 +7229,28 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7156,15 +7269,17 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7213,7 +7328,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7228,38 +7343,38 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7268,16 +7383,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7303,13 +7418,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7327,7 +7442,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7342,28 +7457,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7379,20 +7494,18 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7417,13 +7530,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7441,7 +7554,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7453,19 +7566,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7473,18 +7586,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7496,15 +7609,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7541,31 +7656,31 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
@@ -7585,11 +7700,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7605,21 +7720,23 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7655,11 +7772,9 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7667,7 +7782,7 @@
         <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7679,16 +7794,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7699,9 +7814,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7710,7 +7827,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7725,7 +7842,7 @@
         <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>164</v>
@@ -7759,26 +7876,26 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>168</v>
@@ -7813,11 +7930,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B54" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7835,23 +7950,19 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7875,11 +7986,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7897,28 +8010,28 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7929,20 +8042,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7951,23 +8062,21 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7991,29 +8100,31 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8025,16 +8136,16 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8045,7 +8156,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8053,7 +8164,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
@@ -8068,26 +8179,26 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
@@ -8129,7 +8240,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8147,10 +8258,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8161,18 +8272,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>413</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8184,16 +8295,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8243,13 +8354,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8258,16 +8369,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8275,7 +8386,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8286,7 +8397,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8298,16 +8409,18 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8331,13 +8444,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8355,13 +8468,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8373,13 +8486,13 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8387,7 +8500,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8398,7 +8511,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8410,16 +8523,18 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8467,13 +8582,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8485,13 +8600,13 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8499,7 +8614,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8510,7 +8625,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8522,18 +8637,20 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8557,13 +8674,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8581,13 +8698,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8596,16 +8713,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8613,9 +8730,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8624,7 +8743,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8636,18 +8755,20 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>442</v>
+        <v>162</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8671,13 +8792,11 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8695,7 +8814,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8710,16 +8829,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>447</v>
+        <v>169</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>448</v>
+        <v>170</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8727,7 +8846,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8738,7 +8857,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8750,13 +8869,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>132</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8807,28 +8926,28 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>449</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8839,11 +8958,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8862,16 +8981,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>461</v>
+        <v>113</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8909,19 +9028,19 @@
         <v>44</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>456</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8933,16 +9052,16 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>463</v>
+        <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>134</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8953,7 +9072,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8961,10 +9080,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8976,24 +9095,26 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>44</v>
@@ -9035,13 +9156,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9053,10 +9174,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9067,18 +9188,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9090,20 +9211,18 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9127,13 +9246,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9151,13 +9270,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9169,21 +9288,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9194,7 +9313,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9203,19 +9322,21 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>483</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9263,13 +9384,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9278,24 +9399,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9321,13 +9442,15 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9375,7 +9498,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9393,10 +9516,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>325</v>
+        <v>435</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9407,7 +9530,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9418,7 +9541,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9427,21 +9550,23 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>493</v>
+        <v>289</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9489,13 +9614,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9504,23 +9629,1499 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="L76" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9530,7 +11131,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -988,7 +988,17 @@
     <t>ServiceRequest.code.coding</t>
   </si>
   <si>
+    <t>value:system}
+value:code}</t>
+  </si>
+  <si>
     <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>ServiceRequest.code.text</t>
@@ -1282,126 +1292,6 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
-    <t>ServiceRequest.performerType.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>snomedPerformerType</t>
   </si>
   <si>
@@ -1409,9 +1299,6 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
@@ -1837,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1846,7 +1733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6226,9 +6113,7 @@
       <c r="A39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6237,7 +6122,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6298,16 +6183,14 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>168</v>
@@ -6342,9 +6225,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6353,7 +6238,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6365,19 +6250,19 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6402,13 +6287,11 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6426,13 +6309,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6444,10 +6327,10 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6458,18 +6341,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
@@ -6481,18 +6364,20 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6516,13 +6401,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6540,16 +6425,16 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>64</v>
@@ -6558,32 +6443,32 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6595,18 +6480,18 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6630,13 +6515,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6654,16 +6539,16 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6672,21 +6557,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6694,13 +6579,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6709,16 +6594,18 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6766,10 +6653,10 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>52</v>
@@ -6781,38 +6668,38 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6821,13 +6708,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6878,10 +6765,10 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>52</v>
@@ -6893,28 +6780,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6933,13 +6820,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6990,7 +6877,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7005,28 +6892,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7045,13 +6932,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7078,13 +6965,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -7102,7 +6989,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7117,38 +7004,38 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7157,13 +7044,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7190,13 +7077,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7214,7 +7101,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7229,28 +7116,28 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7269,17 +7156,15 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7328,7 +7213,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7343,38 +7228,38 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7383,16 +7268,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7418,13 +7303,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7442,7 +7327,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7457,28 +7342,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7494,18 +7379,20 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7530,13 +7417,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7554,7 +7441,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7566,19 +7453,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7586,18 +7473,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7609,17 +7496,15 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7656,31 +7541,31 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
@@ -7700,11 +7585,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7720,23 +7605,21 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7772,9 +7655,11 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7782,7 +7667,7 @@
         <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7794,16 +7679,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7814,11 +7699,9 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7827,7 +7710,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7842,7 +7725,7 @@
         <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>164</v>
@@ -7876,26 +7759,26 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>168</v>
@@ -7930,9 +7813,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7950,19 +7835,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7986,13 +7875,11 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -8010,28 +7897,28 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8042,18 +7929,20 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -8062,21 +7951,23 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8100,31 +7991,29 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8136,16 +8025,16 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8156,7 +8045,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8164,7 +8053,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
@@ -8179,26 +8068,26 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>173</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>174</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>175</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
@@ -8240,7 +8129,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>176</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8258,10 +8147,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>178</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8272,18 +8161,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8295,16 +8184,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8354,13 +8243,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8369,16 +8258,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8386,7 +8275,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8397,7 +8286,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8409,18 +8298,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8444,13 +8331,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8468,13 +8355,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8486,13 +8373,13 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8500,7 +8387,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8511,7 +8398,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8523,18 +8410,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8582,13 +8467,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8600,13 +8485,13 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8614,7 +8499,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8625,7 +8510,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8637,20 +8522,18 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8674,13 +8557,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8698,13 +8581,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8713,16 +8596,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8730,11 +8613,9 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8743,7 +8624,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8755,20 +8636,18 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8792,11 +8671,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8814,7 +8695,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8829,16 +8710,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>169</v>
+        <v>447</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>170</v>
+        <v>448</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8846,7 +8727,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8857,7 +8738,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8869,13 +8750,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>132</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8926,28 +8807,28 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>454</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>134</v>
+        <v>455</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8958,11 +8839,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>110</v>
+        <v>457</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8981,16 +8862,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>137</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>113</v>
+        <v>461</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9028,19 +8909,19 @@
         <v>44</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>456</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9052,16 +8933,16 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>134</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9072,7 +8953,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9080,10 +8961,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9095,26 +8976,24 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>44</v>
@@ -9156,13 +9035,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9174,10 +9053,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9188,18 +9067,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9211,18 +9090,20 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9246,13 +9127,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9270,13 +9151,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9288,21 +9169,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9313,7 +9194,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9322,21 +9203,19 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9384,13 +9263,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9399,24 +9278,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9442,15 +9321,13 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9498,7 +9375,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9516,10 +9393,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9530,7 +9407,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9541,7 +9418,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9550,23 +9427,21 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>289</v>
+        <v>493</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9614,13 +9489,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9629,1499 +9504,23 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11131,7 +9530,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="532">
   <si>
     <t>Path</t>
   </si>
@@ -979,31 +979,6 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -1292,6 +1267,126 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
+    <t>ServiceRequest.performerType.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>snomedPerformerType</t>
   </si>
   <si>
@@ -1299,6 +1394,9 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
@@ -1724,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,8 +1831,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.75390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5889,14 +5987,14 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5905,18 +6003,20 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5941,13 +6041,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5965,50 +6065,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6017,21 +6117,21 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6067,40 +6167,40 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6109,9 +6209,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6119,13 +6219,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6134,20 +6234,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6183,23 +6279,25 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6208,37 +6306,35 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6250,20 +6346,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6287,11 +6379,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6309,13 +6403,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6324,28 +6418,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6364,20 +6458,16 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6425,7 +6515,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6440,35 +6530,35 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6480,17 +6570,15 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6518,10 +6606,10 @@
         <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6539,16 +6627,16 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6557,35 +6645,35 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6594,18 +6682,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6653,7 +6739,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6668,28 +6754,28 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6708,15 +6794,17 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6765,10 +6853,10 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>52</v>
@@ -6780,28 +6868,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6820,15 +6908,17 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6853,13 +6943,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6877,7 +6967,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6892,28 +6982,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6929,16 +7019,16 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6989,7 +7079,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7001,38 +7091,38 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>134</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7041,18 +7131,20 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7077,43 +7169,43 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
@@ -7122,32 +7214,32 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7156,16 +7248,20 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7201,25 +7297,23 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7228,38 +7322,40 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>169</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>170</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7268,18 +7364,20 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7303,13 +7401,11 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7327,13 +7423,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>168</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7342,28 +7438,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>170</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7379,20 +7475,18 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7417,13 +7511,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7441,7 +7535,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7453,19 +7547,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7477,14 +7571,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7496,15 +7590,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7541,31 +7637,31 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
@@ -7589,14 +7685,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7605,27 +7701,29 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7655,40 +7753,40 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7699,7 +7797,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7710,7 +7808,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7722,20 +7820,18 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7771,23 +7867,25 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7799,10 +7897,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>169</v>
+        <v>416</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7813,11 +7911,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7838,19 +7934,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7875,11 +7969,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7897,13 +7993,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7915,10 +8011,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7929,11 +8025,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7954,19 +8048,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>166</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7991,11 +8083,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8013,13 +8107,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>168</v>
+        <v>429</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8031,10 +8125,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>169</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>170</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8045,7 +8139,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8068,19 +8162,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>174</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>175</v>
+        <v>436</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8129,7 +8223,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>176</v>
+        <v>437</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8147,10 +8241,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>178</v>
+        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8161,18 +8255,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>413</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8184,18 +8280,20 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>414</v>
+        <v>162</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>164</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8219,13 +8317,11 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8243,7 +8339,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8258,16 +8354,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8275,7 +8371,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8286,7 +8382,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8295,16 +8391,16 @@
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>132</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8331,13 +8427,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8355,19 +8451,19 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
@@ -8376,10 +8472,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8387,11 +8483,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8407,18 +8503,20 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8455,19 +8553,19 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8479,7 +8577,7 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
@@ -8488,10 +8586,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8499,7 +8597,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8507,10 +8605,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8522,24 +8620,26 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8557,13 +8657,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8581,13 +8681,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8596,16 +8696,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8613,7 +8713,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8624,7 +8724,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8636,16 +8736,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>442</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8695,13 +8795,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8710,16 +8810,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8727,7 +8827,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8738,7 +8838,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8747,19 +8847,21 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8807,13 +8909,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8822,13 +8924,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8839,18 +8941,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8859,21 +8961,21 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8921,13 +9023,13 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -8936,13 +9038,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8953,7 +9055,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8964,7 +9066,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8976,18 +9078,20 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>466</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9035,13 +9139,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9053,10 +9157,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9067,18 +9171,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9090,19 +9194,19 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>475</v>
+        <v>173</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>477</v>
+        <v>175</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9127,13 +9231,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9151,13 +9255,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9169,25 +9273,25 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>480</v>
+        <v>178</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9203,18 +9307,20 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9263,7 +9369,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9278,24 +9384,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9306,7 +9412,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9318,13 +9424,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9351,13 +9457,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9375,13 +9481,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9393,13 +9499,13 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9407,7 +9513,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9427,20 +9533,18 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9489,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9504,23 +9608,1045 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9530,7 +10656,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/servicerequest-path-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-path-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="470">
   <si>
     <t>Path</t>
   </si>
@@ -386,142 +386,638 @@
     <t>ServiceRequest.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-localorderidentifier}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>placerIdentifier</t>
-  </si>
-  <si>
-    <t>Placer identifier</t>
-  </si>
-  <si>
-    <t>The identifier associated with the person or service that requests or places an order.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | completed</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0203</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding</t>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9,  RF1-7 / RF1-9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Authorising healthcare provider or organisation / program (e.g. National Bowel Cancer Screening Program)</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12, PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT, RF!-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -540,724 +1036,19 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
-  &lt;code value="PLAC"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>Placer identifier system namespace</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | completed</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9,  RF1-7 / RF1-9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Authorising healthcare provider or organisation / program (e.g. National Bowel Cancer Screening Program)</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12, PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT, RF!-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
     <t>anzscoPerformerType</t>
   </si>
   <si>
@@ -1400,6 +1191,27 @@
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.performer</t>
@@ -1474,10 +1286,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-for-request-1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1822,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3129,7 +2938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>116</v>
       </c>
@@ -3151,7 +2960,7 @@
         <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>117</v>
@@ -3201,14 +3010,16 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>116</v>
@@ -3220,34 +3031,32 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
@@ -3268,16 +3077,16 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3327,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3342,24 +3151,24 @@
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3370,7 +3179,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3379,18 +3188,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3439,28 +3250,28 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3471,11 +3282,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3491,20 +3302,18 @@
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3541,19 +3350,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3565,16 +3374,16 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3585,43 +3394,39 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3645,13 +3450,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3669,13 +3474,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3684,13 +3489,13 @@
         <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3701,15 +3506,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>52</v>
@@ -3724,19 +3529,19 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3761,11 +3566,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3783,7 +3590,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3798,13 +3605,13 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3813,9 +3620,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3823,30 +3630,32 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3871,13 +3680,11 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3895,10 +3702,10 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>52</v>
@@ -3907,59 +3714,59 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3967,7 +3774,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
@@ -3985,63 +3792,63 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4052,10 +3859,10 @@
         <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -4064,19 +3871,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4086,7 +3893,7 @@
         <v>44</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>44</v>
@@ -4101,13 +3908,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -4125,7 +3932,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4143,13 +3950,13 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -4157,7 +3964,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4180,24 +3987,22 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>44</v>
       </c>
@@ -4217,13 +4022,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4241,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4256,16 +4061,16 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -4273,7 +4078,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4281,7 +4086,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
@@ -4290,30 +4095,32 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4321,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>44</v>
@@ -4357,7 +4164,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4372,13 +4179,13 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4387,23 +4194,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>44</v>
@@ -4412,16 +4219,16 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4435,7 +4242,7 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>44</v>
@@ -4447,13 +4254,11 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4471,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4486,35 +4291,35 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4526,15 +4331,17 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4559,13 +4366,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4583,16 +4390,16 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
@@ -4601,21 +4408,21 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4638,18 +4445,18 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4697,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4715,10 +4522,10 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4727,9 +4534,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4737,13 +4544,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4752,17 +4559,15 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4811,13 +4616,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4826,35 +4631,35 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4866,17 +4671,15 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4925,13 +4728,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4940,35 +4743,35 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4980,13 +4783,13 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5037,13 +4840,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5052,35 +4855,35 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -5092,13 +4895,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5125,13 +4928,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5149,13 +4952,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5164,38 +4967,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>44</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5204,20 +5007,16 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5265,7 +5064,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5280,28 +5079,28 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5314,22 +5113,22 @@
         <v>53</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5355,11 +5154,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5377,10 +5178,10 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>52</v>
@@ -5392,56 +5193,56 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5449,7 +5250,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>44</v>
@@ -5467,13 +5268,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5491,10 +5292,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5506,24 +5307,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5531,35 +5332,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5583,13 +5380,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5607,31 +5404,31 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5639,18 +5436,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5659,25 +5456,25 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5697,55 +5494,55 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5753,7 +5550,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5764,38 +5561,36 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5827,25 +5622,23 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5854,13 +5647,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5869,13 +5662,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5885,7 +5680,7 @@
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5894,18 +5689,20 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5929,11 +5726,11 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5951,13 +5748,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5966,35 +5763,35 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6003,20 +5800,18 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -6041,13 +5836,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -6065,50 +5860,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6117,21 +5912,21 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6167,16 +5962,16 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>318</v>
@@ -6185,22 +5980,22 @@
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6209,9 +6004,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6225,7 +6020,7 @@
         <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6234,22 +6029,26 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>44</v>
@@ -6291,10 +6090,10 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>52</v>
@@ -6306,28 +6105,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6346,15 +6145,17 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6403,7 +6204,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6418,28 +6219,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6458,16 +6259,18 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6515,7 +6318,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6530,24 +6333,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6570,16 +6373,18 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6603,13 +6408,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>44</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6627,7 +6432,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6645,35 +6450,35 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6682,16 +6487,20 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6739,7 +6548,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6754,38 +6563,40 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6794,18 +6605,20 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6829,13 +6642,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6853,13 +6664,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6868,28 +6679,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6905,20 +6716,18 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6943,13 +6752,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6967,7 +6776,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6979,19 +6788,19 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6999,18 +6808,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7022,15 +6831,17 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7067,31 +6878,31 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
@@ -7100,7 +6911,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7111,18 +6922,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7131,27 +6942,29 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7181,40 +6994,40 @@
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7225,7 +7038,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7236,7 +7049,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7248,20 +7061,18 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7297,23 +7108,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7325,10 +7138,10 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7339,11 +7152,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7364,19 +7175,17 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7401,11 +7210,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7423,13 +7234,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7441,10 +7252,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7455,7 +7266,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7475,19 +7286,21 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>359</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7535,7 +7348,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7547,16 +7360,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7567,18 +7380,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7587,21 +7400,23 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7637,40 +7452,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7681,7 +7496,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7689,7 +7504,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>52</v>
@@ -7704,26 +7519,26 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7765,7 +7580,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7783,10 +7598,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7797,18 +7612,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7820,16 +7635,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7879,13 +7694,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7894,16 +7709,16 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7911,7 +7726,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7922,7 +7737,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7934,18 +7749,16 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7969,13 +7782,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7993,13 +7806,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -8011,13 +7824,13 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8025,7 +7838,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8036,7 +7849,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -8048,18 +7861,16 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8107,13 +7918,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8125,13 +7936,13 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8139,7 +7950,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8150,7 +7961,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8162,20 +7973,18 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8199,13 +8008,11 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8223,13 +8030,13 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
@@ -8238,16 +8045,16 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8255,11 +8062,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8268,7 +8073,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8280,20 +8085,18 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8317,11 +8120,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8339,7 +8144,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8354,16 +8159,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>170</v>
+        <v>419</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8371,7 +8176,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8382,7 +8187,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8394,13 +8199,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>421</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8451,28 +8256,28 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>133</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8483,11 +8288,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>110</v>
+        <v>428</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8506,16 +8311,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>430</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
+        <v>432</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8553,19 +8358,19 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8577,16 +8382,16 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8597,7 +8402,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8605,10 +8410,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8620,26 +8425,24 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>437</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8681,13 +8484,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8699,10 +8502,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8713,18 +8516,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8736,18 +8539,20 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8771,13 +8576,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8795,13 +8600,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8813,21 +8618,21 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8838,7 +8643,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8847,21 +8652,19 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>454</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8909,13 +8712,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8924,24 +8727,24 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>423</v>
+        <v>233</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8967,15 +8770,13 @@
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -9023,7 +8824,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9041,10 +8842,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>430</v>
+        <v>233</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9055,7 +8856,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9066,7 +8867,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9075,23 +8876,21 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>289</v>
+        <v>464</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9139,13 +8938,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9154,1499 +8953,23 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>438</v>
+        <v>95</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10656,7 +8979,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
